--- a/Plate_bn_exp_2/original_data/plate2_counts.xlsx
+++ b/Plate_bn_exp_2/original_data/plate2_counts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcommon/Documents/OneDrive - University of Exeter/Data/Bottlenecks/Plate_bn_exp_2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcommon/Documents/OneDrive - University of Exeter/Data/Bottlenecks/Plate_bn_exp_2/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
